--- a/SWPattern/experimentalResults/scholarlyInclusionDatasets/outputScholarlyInclusion-ISWC12.xlsx
+++ b/SWPattern/experimentalResults/scholarlyInclusionDatasets/outputScholarlyInclusion-ISWC12.xlsx
@@ -12,21 +12,22 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10425"/>
   </bookViews>
   <sheets>
-    <sheet name="InclusionComparison" sheetId="6" r:id="rId1"/>
-    <sheet name="InclusionComparison-outdated" sheetId="5" state="hidden" r:id="rId2"/>
-    <sheet name="ColoredMatrixInclusion" sheetId="4" r:id="rId3"/>
-    <sheet name="OriginalMatrix" sheetId="3" r:id="rId4"/>
-    <sheet name="outputScholarlyInclusion" sheetId="1" r:id="rId5"/>
+    <sheet name="SAC-InclusionComparison-ISWC'12" sheetId="7" r:id="rId1"/>
+    <sheet name="InclusionComparison" sheetId="6" r:id="rId2"/>
+    <sheet name="InclusionComparison-outdated" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="ColoredMatrixInclusion" sheetId="4" r:id="rId4"/>
+    <sheet name="OriginalMatrix" sheetId="3" r:id="rId5"/>
+    <sheet name="outputScholarlyInclusion" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">outputScholarlyInclusion!$A$1:$G$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">outputScholarlyInclusion!$A$1:$G$364</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="61">
   <si>
     <t>input</t>
   </si>
@@ -138,11 +139,86 @@
   <si>
     <t>Ratio with CT</t>
   </si>
+  <si>
+    <t>Property Based (PB)</t>
+  </si>
+  <si>
+    <t>Property Class Based (PCB)</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>EKAW'16</t>
+  </si>
+  <si>
+    <t>ISWC'10</t>
+  </si>
+  <si>
+    <t>ISWC'12</t>
+  </si>
+  <si>
+    <t>ISWC'13</t>
+  </si>
+  <si>
+    <t>ESWC'12</t>
+  </si>
+  <si>
+    <t>ESWC'14</t>
+  </si>
+  <si>
+    <t>ESWC'15</t>
+  </si>
+  <si>
+    <t>ESWC'17</t>
+  </si>
+  <si>
+    <t>LREC'08</t>
+  </si>
+  <si>
+    <t>WWW'11</t>
+  </si>
+  <si>
+    <t>WWW'12</t>
+  </si>
+  <si>
+    <t>EKAW'16-ISWC'12</t>
+  </si>
+  <si>
+    <t>ESWC'12-ISWC'12</t>
+  </si>
+  <si>
+    <t>ESWC'14-ISWC'12</t>
+  </si>
+  <si>
+    <t>ESWC'15-ISWC'12</t>
+  </si>
+  <si>
+    <t>ESWC'17-ISWC'12</t>
+  </si>
+  <si>
+    <t>ISWC'10-ISWC'12</t>
+  </si>
+  <si>
+    <t>ISWC'13-ISWC'12</t>
+  </si>
+  <si>
+    <t>LREC'08-ISWC'12</t>
+  </si>
+  <si>
+    <t>WWW'11-ISWC'12</t>
+  </si>
+  <si>
+    <t>WWW'12-ISWC'12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,7 +563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -637,6 +713,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -682,26 +786,50 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="5" xfId="41" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="32" borderId="13" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="13" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="13" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1023,9 +1151,799 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.97953806680438904</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1.01352508804415</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.92345884445904003</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1.0265535098581799</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1.06499871515969</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.91012808268828804</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.12996251253885399</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1.0146412429429299</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0.95632192889584899</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0.92325776765899603</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0.90253126038406695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1.2594789206814601</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1.21094599314801</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.98549500155764702</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1.10502169456696</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1.21718317378227</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.96975852463771595</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.12996251253885399</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1.0451838164309</v>
+      </c>
+      <c r="K4" s="17">
+        <v>1.01280140020704</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0.98348108878212503</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0.95897133997159101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1.40540426842295</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1.97172868963992</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.921335554329622</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1.1362042772070799</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1.2598697649749599</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.91360412163875804</v>
+      </c>
+      <c r="I7" s="16">
+        <v>7.2738906951397495E-2</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1.0609235965623101</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0.96560535960444605</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0.93131099786534999</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0.97083182427194004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2.2361785982442401</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2.8178232828339098</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.98557886947182605</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1.29456868700487</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1.60573794659678</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.97730476825874701</v>
+      </c>
+      <c r="I9" s="16">
+        <v>7.2738906951397495E-2</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1.11028470828394</v>
+      </c>
+      <c r="K9" s="17">
+        <v>1.02524286130324</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0.99780061073250303</v>
+      </c>
+      <c r="M9" s="17">
+        <v>1.0453600977942401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1.0311805133730501</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="18">
+        <v>5.2942722086264897</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1.03822404951272</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="18">
+        <v>8.9181477706797807</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1.0311805133730501</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="17">
+        <v>4.6968437097951403</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1.03758488428934</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="17">
+        <v>7.7781599438036597</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1.0015222028951201</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="17">
+        <v>2.8360374291458599</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1.00687321881029</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="17">
+        <v>4.1945227534052201</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1.03118051337306</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="17">
+        <v>2.8146320890410998</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1.03787087543984</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="17">
+        <v>4.1829458379023601</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1.03118051337306</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="17">
+        <v>2.8694127085223098</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1.0382240495127399</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="17">
+        <v>4.2374705052450903</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1.0015222028951201</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="17">
+        <v>2.7601796054635899</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1.0015078530644299</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="17">
+        <v>4.0771042257758801</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.12996251253885399</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.12996251253885399</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="16">
+        <v>7.2738906951397495E-2</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="16">
+        <v>7.2738906951397495E-2</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="17">
+        <v>1.03118051337306</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1.03118051337306</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1.03758488428939</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1.0382240495127399</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1.0015222028951201</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="17">
+        <v>2.41521338410486</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="17">
+        <v>1.0015078530644299</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="17">
+        <v>3.3882918809670199</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1.6103178598061101</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1.8735644444167301</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1.0027088037415199</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1.8218194786041599</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1.0053644742787</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="17">
+        <v>1.86695694356974</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:M9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:I23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L31" activeCellId="7" sqref="B38:C43 B45:C48 E38:F43 E45:F48 I24:J29 I31:J34 L24:M29 L31:M34"/>
     </sheetView>
   </sheetViews>
@@ -1077,10 +1995,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C2">
@@ -1101,7 +2019,7 @@
       <c r="H2">
         <v>0.91012808268828804</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="6">
         <v>0.12996251253885399</v>
       </c>
       <c r="J2">
@@ -1118,8 +2036,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C3">
@@ -1140,7 +2058,7 @@
       <c r="H3">
         <v>1.4011745217314</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="6">
         <v>0.12996251253885399</v>
       </c>
       <c r="J3">
@@ -1195,10 +2113,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C5">
@@ -1219,7 +2137,7 @@
       <c r="H5">
         <v>0.96975852463771595</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="6">
         <v>0.12996251253885399</v>
       </c>
       <c r="J5">
@@ -1236,8 +2154,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C6">
@@ -1258,7 +2176,7 @@
       <c r="H6">
         <v>1.8638314415066199</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>0.12996251253885399</v>
       </c>
       <c r="J6">
@@ -1314,10 +2232,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C9">
@@ -1338,7 +2256,7 @@
       <c r="H9">
         <v>0.91360412163875804</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="6">
         <v>7.2738906951397495E-2</v>
       </c>
       <c r="J9">
@@ -1355,8 +2273,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C10">
@@ -1377,7 +2295,7 @@
       <c r="H10">
         <v>1.5643032622717701</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="6">
         <v>7.2738906951397495E-2</v>
       </c>
       <c r="J10">
@@ -1432,10 +2350,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C12">
@@ -1456,7 +2374,7 @@
       <c r="H12">
         <v>0.97730476825874701</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="6">
         <v>7.2738906951397495E-2</v>
       </c>
       <c r="J12">
@@ -1473,8 +2391,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C13">
@@ -1495,7 +2413,7 @@
       <c r="H13">
         <v>2.1901908322470098</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="6">
         <v>7.2738906951397495E-2</v>
       </c>
       <c r="J13">
@@ -1551,10 +2469,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C16">
@@ -1575,7 +2493,7 @@
       <c r="H16">
         <v>0.93006732506624801</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="6">
         <v>8.1627504625352704E-2</v>
       </c>
       <c r="J16">
@@ -1592,8 +2510,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C17">
@@ -1614,7 +2532,7 @@
       <c r="H17">
         <v>1.5730399612689701</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="6">
         <v>8.1627504625352704E-2</v>
       </c>
       <c r="J17">
@@ -1669,10 +2587,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C19">
@@ -1693,7 +2611,7 @@
       <c r="H19">
         <v>0.95673150558715503</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="6">
         <v>8.1627504625352704E-2</v>
       </c>
       <c r="J19">
@@ -1710,8 +2628,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C20">
@@ -1732,7 +2650,7 @@
       <c r="H20">
         <v>2.1106041501811799</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="6">
         <v>8.1627504625352704E-2</v>
       </c>
       <c r="J20">
@@ -1750,46 +2668,46 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="11"/>
+      <c r="E22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="I22" s="8" t="s">
+      <c r="F22" s="11"/>
+      <c r="I22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="L22" s="8" t="s">
+      <c r="J22" s="11"/>
+      <c r="L22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="9"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2025,37 +2943,37 @@
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="6">
         <v>0.12996251253885399</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="6">
         <v>0.12996251253885399</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="6">
         <v>0.12996251253885399</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="6">
         <v>0.12996251253885399</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="6">
         <v>7.2738906951397495E-2</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="6">
         <v>7.2738906951397495E-2</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="6">
         <v>7.2738906951397495E-2</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="6">
         <v>7.2738906951397495E-2</v>
       </c>
     </row>
@@ -2212,26 +3130,26 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="E36" s="8" t="s">
+      <c r="C36" s="11"/>
+      <c r="E36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2359,19 +3277,19 @@
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="6">
         <v>8.1627504625352704E-2</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="6">
         <v>8.1627504625352704E-2</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="6">
         <v>8.1627504625352704E-2</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="6">
         <v>8.1627504625352704E-2</v>
       </c>
     </row>
@@ -2463,78 +3381,18 @@
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:H3 J2:M3 C5:H6 J5:M6">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:H10 J9:M10 J12:M13 C12:H13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:H17 J16:M17 J19:M20 C19:H20">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C29 B31:C34 E31:F34 E24:F29">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C43 B45:C48 E38:F43 E45:F48">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:C43 B45:C48 E38:F43 E45:F48 I24:J29 I31:J34 L24:M29 L31:M34">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
@@ -3651,7 +4509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
@@ -5075,7 +5933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
@@ -6468,7 +7326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G364"/>
